--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_2_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_2_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.711326434875e-16</v>
+        <v>1.714630153861246e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>52.40405715602457</v>
+        <v>56.76729839412141</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[46.47011626908011, 58.33799804296903]</t>
+          <t>[50.759121408047534, 62.77547538019529]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 1.8050792624229643]</t>
+          <t>[1.6541318676558872, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.97705090282133</v>
+        <v>57.97555061291111</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.20788847042432, 59.74621333521833]</t>
+          <t>[54.25805646747016, 61.693044758352066]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.29019019019054</v>
+        <v>18.07577577577613</v>
       </c>
       <c r="X2" t="n">
-        <v>17.83919919919953</v>
+        <v>17.62262262262297</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.74118118118154</v>
+        <v>18.52892892892929</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.711326434875e-16</v>
+        <v>1.714630153861246e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.29828212617929</v>
+        <v>51.97659959929638</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.80976569566036, 58.78679855669823]</t>
+          <t>[44.39678402001279, 59.55641517857997]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.503210963220696</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.6541583579877734, -2.352263568453619]</t>
+          <t>[-2.31452671976185, -2.0126319302276956]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>56.92547371869099</v>
+        <v>57.2821961102841</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.026740804897564, 60.824206632484426]</t>
+          <t>[53.37283282472116, 61.19155939584704]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.115355355355412</v>
+        <v>7.909589589589643</v>
       </c>
       <c r="X3" t="n">
-        <v>8.56568568568574</v>
+        <v>7.357757757757808</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.665025025025084</v>
+        <v>8.461421421421479</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_2_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_2_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.714630153861246e-16</v>
+        <v>1.672652391149012e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>56.76729839412141</v>
+        <v>58.34934790660161</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[50.759121408047534, 62.77547538019529]</t>
+          <t>[52.41754378732131, 64.28115202588192]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.767342413731195</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6541318676558872, 1.8805529598065034]</t>
+          <t>[1.503184472888809, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.97555061291111</v>
+        <v>59.6328393093102</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.25805646747016, 61.693044758352066]</t>
+          <t>[55.592431900198775, 63.67324671842162]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.07577577577613</v>
+        <v>18.55159159159193</v>
       </c>
       <c r="X2" t="n">
-        <v>17.62262262262297</v>
+        <v>18.15263263263297</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.52892892892929</v>
+        <v>18.9505505505509</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.714630153861246e-16</v>
+        <v>1.672652391149012e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.97659959929638</v>
+        <v>51.66696325671106</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.39678402001279, 59.55641517857997]</t>
+          <t>[44.51687182384534, 58.81705468957677]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.163579324994773</v>
+        <v>-2.540947811912465</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.31452671976185, -2.0126319302276956]</t>
+          <t>[-2.6793162571156195, -2.402579366709311]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.2821961102841</v>
+        <v>56.905742830555</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.37283282472116, 61.19155939584704]</t>
+          <t>[53.15338369638524, 60.65810196472476]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.909589589589643</v>
+        <v>9.248728728728784</v>
       </c>
       <c r="X3" t="n">
-        <v>7.357757757757808</v>
+        <v>8.745085085085137</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.461421421421479</v>
+        <v>9.752372372372431</v>
       </c>
     </row>
   </sheetData>
